--- a/homework_laravel/homework_2/social_network.xlsx
+++ b/homework_laravel/homework_2/social_network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk-notebook\Desktop\homework\homework_laravel\homework_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA185A0-2BA4-4B2F-8F13-D9539D679B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2486387B-76EE-43DE-8DF6-7F6FC80228FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>class people</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>edit admins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +404,7 @@
     <col min="3" max="3" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -423,22 +426,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -449,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -460,12 +468,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
